--- a/data_quarter/zb/工业/主要工业产品的销售与库存/大型拖拉机.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/大型拖拉机.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,21 @@
           <t>大型拖拉机销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大型拖拉机产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>大型拖拉机销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -473,49 +483,67 @@
       <c r="E2" t="n">
         <v>21041</v>
       </c>
+      <c r="F2" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>21041</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="D3" t="n">
-        <v>23.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" t="n">
-        <v>65288</v>
+        <v>46191</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="C4" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2</v>
+        <v>23.5</v>
       </c>
       <c r="E4" t="n">
-        <v>46191</v>
+        <v>65288</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -530,11 +558,17 @@
       <c r="E5" t="n">
         <v>73832</v>
       </c>
+      <c r="F5" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8544</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -549,49 +583,67 @@
       <c r="E6" t="n">
         <v>18745</v>
       </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18745</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2</v>
+        <v>-4.6</v>
       </c>
       <c r="E7" t="n">
-        <v>69330</v>
+        <v>48835</v>
+      </c>
+      <c r="F7" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30090</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E8" t="n">
-        <v>48835</v>
+        <v>69330</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,11 +658,17 @@
       <c r="E9" t="n">
         <v>14928</v>
       </c>
+      <c r="F9" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14928</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -625,49 +683,67 @@
       <c r="E10" t="n">
         <v>9721</v>
       </c>
+      <c r="F10" t="n">
+        <v>4.100000000000009</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9721</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>4.1</v>
+        <v>-1.5</v>
       </c>
       <c r="D11" t="n">
-        <v>47.5</v>
+        <v>43.3</v>
       </c>
       <c r="E11" t="n">
-        <v>31635</v>
+        <v>18009</v>
+      </c>
+      <c r="F11" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8288</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.5</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3</v>
+        <v>47.5</v>
       </c>
       <c r="E12" t="n">
-        <v>18009</v>
+        <v>31635</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.100000000000009</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13626</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -682,11 +758,17 @@
       <c r="E13" t="n">
         <v>37807</v>
       </c>
+      <c r="F13" t="n">
+        <v>4.599999999999994</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6172</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -701,49 +783,67 @@
       <c r="E14" t="n">
         <v>12254</v>
       </c>
+      <c r="F14" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12254</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.2</v>
+        <v>97.8</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.6</v>
+        <v>5.4</v>
       </c>
       <c r="D15" t="n">
-        <v>116.3</v>
+        <v>23.5</v>
       </c>
       <c r="E15" t="n">
-        <v>49741</v>
+        <v>28043</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21.89999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15789</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.8</v>
+        <v>94.2</v>
       </c>
       <c r="C16" t="n">
-        <v>5.4</v>
+        <v>-2.6</v>
       </c>
       <c r="D16" t="n">
-        <v>23.5</v>
+        <v>116.3</v>
       </c>
       <c r="E16" t="n">
-        <v>28043</v>
+        <v>49741</v>
+      </c>
+      <c r="F16" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21698</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -758,11 +858,17 @@
       <c r="E17" t="n">
         <v>55831</v>
       </c>
+      <c r="F17" t="n">
+        <v>5.599999999999994</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6090</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -777,49 +883,67 @@
       <c r="E18" t="n">
         <v>10939</v>
       </c>
+      <c r="F18" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10939</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.2</v>
+        <v>90.7</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.2</v>
+        <v>-12.9</v>
       </c>
       <c r="D19" t="n">
-        <v>75.5</v>
+        <v>119.2</v>
       </c>
       <c r="E19" t="n">
-        <v>49665</v>
+        <v>30068</v>
+      </c>
+      <c r="F19" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>19129</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.7</v>
+        <v>96.2</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.9</v>
+        <v>-1.2</v>
       </c>
       <c r="D20" t="n">
-        <v>119.2</v>
+        <v>75.5</v>
       </c>
       <c r="E20" t="n">
-        <v>30068</v>
+        <v>49665</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>19597</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -834,11 +958,17 @@
       <c r="E21" t="n">
         <v>59922</v>
       </c>
+      <c r="F21" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10257</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -853,49 +983,67 @@
       <c r="E22" t="n">
         <v>11155</v>
       </c>
+      <c r="F22" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11155</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6</v>
+        <v>23.8</v>
       </c>
       <c r="E23" t="n">
-        <v>52333</v>
+        <v>30607</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.89999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>19452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D24" t="n">
-        <v>23.8</v>
+        <v>0.6</v>
       </c>
       <c r="E24" t="n">
-        <v>30607</v>
+        <v>52333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.300000000000011</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21726</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -910,11 +1058,17 @@
       <c r="E25" t="n">
         <v>67967</v>
       </c>
+      <c r="F25" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15634</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -929,49 +1083,67 @@
       <c r="E26" t="n">
         <v>15463</v>
       </c>
+      <c r="F26" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>15463</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98</v>
+        <v>94.2</v>
       </c>
       <c r="C27" t="n">
-        <v>-4</v>
+        <v>-4.9</v>
       </c>
       <c r="D27" t="n">
-        <v>18.7</v>
+        <v>36.1</v>
       </c>
       <c r="E27" t="n">
-        <v>69479</v>
+        <v>40530</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>25067</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.2</v>
+        <v>98</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.9</v>
+        <v>-4</v>
       </c>
       <c r="D28" t="n">
-        <v>36.1</v>
+        <v>18.7</v>
       </c>
       <c r="E28" t="n">
-        <v>40530</v>
+        <v>69479</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.799999999999997</v>
+      </c>
+      <c r="G28" t="n">
+        <v>28949</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -985,6 +1157,12 @@
       </c>
       <c r="E29" t="n">
         <v>74139</v>
+      </c>
+      <c r="F29" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4660</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/大型拖拉机.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/大型拖拉机.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>大型拖拉机销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>大型拖拉机产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>大型拖拉机销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,61 +473,43 @@
       <c r="E2" t="n">
         <v>21041</v>
       </c>
-      <c r="F2" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21041</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="C3" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2</v>
+        <v>23.5</v>
       </c>
       <c r="E3" t="n">
-        <v>46191</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25150</v>
+        <v>65288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4</v>
+        <v>6.1</v>
       </c>
       <c r="D4" t="n">
-        <v>23.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>65288</v>
-      </c>
-      <c r="F4" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19097</v>
+        <v>46191</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +530,6 @@
       <c r="E5" t="n">
         <v>73832</v>
       </c>
-      <c r="F5" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8544</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,61 +549,43 @@
       <c r="E6" t="n">
         <v>18745</v>
       </c>
-      <c r="F6" t="n">
-        <v>67</v>
-      </c>
-      <c r="G6" t="n">
-        <v>18745</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.8</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E7" t="n">
-        <v>48835</v>
-      </c>
-      <c r="F7" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30090</v>
+        <v>69330</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>100.8</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2</v>
+        <v>-4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>69330</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20495</v>
+        <v>48835</v>
       </c>
     </row>
     <row r="9">
@@ -658,12 +606,6 @@
       <c r="E9" t="n">
         <v>14928</v>
       </c>
-      <c r="F9" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14928</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -683,61 +625,43 @@
       <c r="E10" t="n">
         <v>9721</v>
       </c>
-      <c r="F10" t="n">
-        <v>4.100000000000009</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9721</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.5</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3</v>
+        <v>47.5</v>
       </c>
       <c r="E11" t="n">
-        <v>18009</v>
-      </c>
-      <c r="F11" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8288</v>
+        <v>31635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>4.1</v>
+        <v>-1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>47.5</v>
+        <v>43.3</v>
       </c>
       <c r="E12" t="n">
-        <v>31635</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.100000000000009</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13626</v>
+        <v>18009</v>
       </c>
     </row>
     <row r="13">
@@ -758,12 +682,6 @@
       <c r="E13" t="n">
         <v>37807</v>
       </c>
-      <c r="F13" t="n">
-        <v>4.599999999999994</v>
-      </c>
-      <c r="G13" t="n">
-        <v>6172</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -783,61 +701,43 @@
       <c r="E14" t="n">
         <v>12254</v>
       </c>
-      <c r="F14" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>12254</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.8</v>
+        <v>94.2</v>
       </c>
       <c r="C15" t="n">
-        <v>5.4</v>
+        <v>-2.6</v>
       </c>
       <c r="D15" t="n">
-        <v>23.5</v>
+        <v>116.3</v>
       </c>
       <c r="E15" t="n">
-        <v>28043</v>
-      </c>
-      <c r="F15" t="n">
-        <v>21.89999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15789</v>
+        <v>49741</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.2</v>
+        <v>97.8</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.6</v>
+        <v>5.4</v>
       </c>
       <c r="D16" t="n">
-        <v>116.3</v>
+        <v>23.5</v>
       </c>
       <c r="E16" t="n">
-        <v>49741</v>
-      </c>
-      <c r="F16" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>21698</v>
+        <v>28043</v>
       </c>
     </row>
     <row r="17">
@@ -858,12 +758,6 @@
       <c r="E17" t="n">
         <v>55831</v>
       </c>
-      <c r="F17" t="n">
-        <v>5.599999999999994</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6090</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -883,61 +777,43 @@
       <c r="E18" t="n">
         <v>10939</v>
       </c>
-      <c r="F18" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>10939</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.7</v>
+        <v>96.2</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.9</v>
+        <v>-1.2</v>
       </c>
       <c r="D19" t="n">
-        <v>119.2</v>
+        <v>75.5</v>
       </c>
       <c r="E19" t="n">
-        <v>30068</v>
-      </c>
-      <c r="F19" t="n">
-        <v>90.7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>19129</v>
+        <v>49665</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96.2</v>
+        <v>90.7</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.2</v>
+        <v>-12.9</v>
       </c>
       <c r="D20" t="n">
-        <v>75.5</v>
+        <v>119.2</v>
       </c>
       <c r="E20" t="n">
-        <v>49665</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>19597</v>
+        <v>30068</v>
       </c>
     </row>
     <row r="21">
@@ -958,12 +834,6 @@
       <c r="E21" t="n">
         <v>59922</v>
       </c>
-      <c r="F21" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10257</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -983,61 +853,43 @@
       <c r="E22" t="n">
         <v>11155</v>
       </c>
-      <c r="F22" t="n">
-        <v>82.7</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11155</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>95.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="D23" t="n">
-        <v>23.8</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>30607</v>
-      </c>
-      <c r="F23" t="n">
-        <v>12.89999999999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19452</v>
+        <v>52333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>23.8</v>
       </c>
       <c r="E24" t="n">
-        <v>52333</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4.300000000000011</v>
-      </c>
-      <c r="G24" t="n">
-        <v>21726</v>
+        <v>30607</v>
       </c>
     </row>
     <row r="25">
@@ -1058,12 +910,6 @@
       <c r="E25" t="n">
         <v>67967</v>
       </c>
-      <c r="F25" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>15634</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1083,61 +929,43 @@
       <c r="E26" t="n">
         <v>15463</v>
       </c>
-      <c r="F26" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="G26" t="n">
-        <v>15463</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>94.2</v>
+        <v>98</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.9</v>
+        <v>-4</v>
       </c>
       <c r="D27" t="n">
-        <v>36.1</v>
+        <v>18.7</v>
       </c>
       <c r="E27" t="n">
-        <v>40530</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G27" t="n">
-        <v>25067</v>
+        <v>69479</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98</v>
+        <v>94.2</v>
       </c>
       <c r="C28" t="n">
-        <v>-4</v>
+        <v>-4.9</v>
       </c>
       <c r="D28" t="n">
-        <v>18.7</v>
+        <v>36.1</v>
       </c>
       <c r="E28" t="n">
-        <v>69479</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.799999999999997</v>
-      </c>
-      <c r="G28" t="n">
-        <v>28949</v>
+        <v>40530</v>
       </c>
     </row>
     <row r="29">
@@ -1157,12 +985,6 @@
       </c>
       <c r="E29" t="n">
         <v>74139</v>
-      </c>
-      <c r="F29" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4660</v>
       </c>
     </row>
   </sheetData>
